--- a/pred_ohlcv/54_21/2020-01-23 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 QTUM ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>-12406.9949036</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-12388.3919036</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7758.025903599999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-5164.185703599998</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>8154.187796400001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>7989.678996400002</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>6952.762596400002</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>6991.858196400001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1536.482896400002</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1536.482896400002</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1536.482896400002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1533.992896400002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>793.4614964000017</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>303.3566964000017</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-245.2456035999984</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-113.6156035999984</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-113.6156035999984</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1033.038603599998</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-970.0512446899984</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1174.145144689998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1174.145144689998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1444.640964329999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1745.327835670001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2061.217496810001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2061.217496810001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2181.871496810001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2070.006096810001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1920.340996810001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1920.340996810001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1918.340996810001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1918.340996810001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2418.34099681</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2418.34099681</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2314.85779681</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3016.85779681</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2976.21749681</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2976.21749681</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2646.95039681</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2789.64997905</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2607.49787905</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2607.49787905</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>820.3169275600003</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2161.35282756</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2144.35282756</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2146.3863097</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2068.5997097</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1666.3332097</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1666.3332097</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1666.3332097</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1181.0083097</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-972.5846902999998</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-21014.5530903</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-21014.5530903</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-19793.12961894001</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-19057.41921894001</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-19057.41921894001</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-20276.28911894001</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-20278.55261894001</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-18972.80290692001</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-18972.80290692001</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-18975.35960692001</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-18950.35960692001</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-18948.87232446001</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-18886.53692446001</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-17729.57752446001</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-17731.57752446001</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-15859.15262446001</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-15859.15262446001</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-15981.44512446001</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-14909.33232446001</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-14911.73802446001</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-14907.28882446001</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-14950.32972446001</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-14951.26513648001</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-14951.26513648001</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-14951.26513648001</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-16297.60283648001</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-15744.46693648001</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-15744.46693648001</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-15809.01693648001</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-15298.99623648001</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-15298.99623648001</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-15298.99623648001</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-15518.12893648001</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-20050.94193648001</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-19754.98243648001</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-19866.68233648001</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-18966.17963648001</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-18966.17963648001</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-18123.63773648001</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-18133.28403648001</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-18103.83673648001</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-18645.73953648001</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-18648.75233648001</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-17030.87923648001</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-17253.04093648001</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-15888.52157734001</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-15889.50457734001</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-15583.98217734001</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-14397.31577734001</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-13557.35427734001</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-13658.08097734001</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-13435.90196758001</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-13435.90196758001</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-13429.37086758001</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-13386.07406758001</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-13386.07406758001</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>10490.68513241999</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>17379.77297064999</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>17253.08157064999</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>17184.58677064999</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>18051.26707064999</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>17684.67807064999</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>15264.07047064999</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>12213.73037064999</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>12396.87977064999</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>8656.918470649995</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>7420.660770649994</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>6446.138588009995</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>6884.198588009996</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>6884.198588009996</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>11380.48278800999</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>9222.773988009994</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>9222.773988009994</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>10424.58258964999</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>10424.58258964999</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>8711.324889649994</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>11317.55978964999</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>9844.813189649993</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>11176.18458964999</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>10634.12478964999</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>10634.12478964999</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>10635.08627817999</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>8337.594078179991</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>7202.594078179991</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-12711.20632182001</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-13121.50612182001</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-12768.80672182001</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-13953.46572182001</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-14252.86272182001</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-14257.86272182001</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-20718.33842182001</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-22224.39882182001</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-22224.39882182001</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-21098.91442182001</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-21777.38992182001</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-21718.45992182001</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-22105.38402182001</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-22105.38402182001</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-22105.38402182001</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-22105.38402182001</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 QTUM ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>-12406.9949036</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-12388.3919036</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7758.025903599999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-5164.185703599998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>8154.187796400001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>7989.678996400002</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>6952.762596400002</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>6991.858196400001</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1536.482896400002</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1536.482896400002</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1536.482896400002</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1533.992896400002</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>793.4614964000017</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>303.3566964000017</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>467.9477964000016</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-245.2456035999984</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-113.6156035999984</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-113.6156035999984</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1033.038603599998</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-970.0512446899984</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1174.145144689998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1174.145144689998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1444.640964329999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1745.327835670001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2061.217496810001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2061.217496810001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2181.871496810001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2070.006096810001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1920.340996810001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1920.340996810001</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1918.340996810001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1918.340996810001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2418.34099681</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2418.34099681</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2314.85779681</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3016.85779681</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2976.21749681</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2976.21749681</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2646.95039681</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2789.64997905</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2607.49787905</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2607.49787905</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>820.3169275600003</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2161.35282756</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2144.35282756</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2146.3863097</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2068.5997097</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1666.3332097</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1666.3332097</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1666.3332097</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1181.0083097</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-972.5846902999998</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-21014.5530903</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-21014.5530903</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-19793.12961894001</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-19057.41921894001</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-19057.41921894001</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-20276.28911894001</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-20278.55261894001</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-18972.80290692001</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-18972.80290692001</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-18975.35960692001</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-18850.35960692001</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-18950.35960692001</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-18948.87232446001</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-18886.53692446001</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-17729.57752446001</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-17731.57752446001</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-15859.15262446001</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-15859.15262446001</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-15981.44512446001</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-14909.33232446001</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-14911.73802446001</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-14907.28882446001</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-14950.32972446001</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-14951.26513648001</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-14951.26513648001</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-14951.26513648001</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-16297.60283648001</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-15744.46693648001</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-15744.46693648001</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-15809.01693648001</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-15298.99623648001</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-15298.99623648001</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-15518.12893648001</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-20050.94193648001</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-19754.98243648001</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-19866.68233648001</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-18966.17963648001</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-18966.17963648001</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-18123.63773648001</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-18133.28403648001</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-18103.83673648001</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-18645.73953648001</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-18648.75233648001</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-17030.87923648001</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-17253.04093648001</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-15888.52157734001</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-15889.50457734001</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-15583.98217734001</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-14397.31577734001</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-13557.35427734001</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-13658.08097734001</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-13435.90196758001</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-13435.90196758001</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-13429.37086758001</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-13386.07406758001</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-13386.07406758001</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-13286.07406758001</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-12378.78816758001</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-12340.66836758001</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-12340.66836758001</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-12162.81576758001</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-12402.16476758001</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-12402.16476758001</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-12402.16476758001</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-12164.59816758001</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-12164.59816758001</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-11476.51366758001</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-10772.27236758001</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-10077.49786758001</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-7562.308767580009</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>10490.68513241999</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>10490.68513241999</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>17379.77297064999</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>17253.08157064999</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>17184.58677064999</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>18051.26707064999</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>17708.93697064999</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>17684.67807064999</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>15264.07047064999</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>12213.73037064999</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>12396.87977064999</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>8656.918470649995</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>7420.660770649994</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>6488.432888009995</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-12711.20632182001</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-13121.50612182001</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-12768.80672182001</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-13953.46572182001</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-17510.79652182001</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-14280.86272182001</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-14252.86272182001</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-14257.86272182001</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-20718.33842182001</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-20153.43842182001</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-21602.90842182001</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-22224.39882182001</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-22020.31422182001</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
